--- a/Temperature compensation optimisation/Interay/141421/SB_141421_Interay_alldata_cleaned_balanced.xlsx
+++ b/Temperature compensation optimisation/Interay/141421/SB_141421_Interay_alldata_cleaned_balanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://althennl-my.sharepoint.com/personal/m_brummelhuis_althen_nl/Documents/Documenten/GitHub/Althen/Temperature compensation optimisation/Interay/141421/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="814" documentId="11_C363F8EC24E08451EC097C72E93161BA83D7F09A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43846BE9-222A-497E-AEAA-F334E47AFC2A}"/>
+  <xr:revisionPtr revIDLastSave="818" documentId="11_C363F8EC24E08451EC097C72E93161BA83D7F09A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44932B3D-6B04-475D-95A8-780A9E1944B0}"/>
   <bookViews>
-    <workbookView xWindow="15735" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SmartBrick (141421) Battery &amp; C" sheetId="1" r:id="rId1"/>
@@ -474,10 +474,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="P179" sqref="P179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10669,11 +10669,11 @@
         <v>1.7354994140625</v>
       </c>
       <c r="O179">
-        <f t="shared" si="9"/>
+        <f>1.61087185+ 0.00491430436*(I179*-1)+0.00218165083*K179+0.000435237811*I179^2+0.000151221498*(I179*-1)*K179-0.000143779632*K179^2</f>
         <v>1.6031974103918765</v>
       </c>
       <c r="P179">
-        <f t="shared" si="10"/>
+        <f>I179-O179</f>
         <v>0.21870200367062353</v>
       </c>
       <c r="Q179">
